--- a/medios_colombia.xlsx
+++ b/medios_colombia.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\FIP\Unidad_de_Monitoreo\Noticias\Archivos_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Proyectos_Python\Busqueda_noticias_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC71278-7F05-4040-BF60-B27327D3D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F2FF0-A88F-4581-8F07-F41EB189CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6A8C8D0-C359-4346-A2FC-4226E3980DEB}"/>
+    <workbookView xWindow="516" yWindow="336" windowWidth="21600" windowHeight="11100" xr2:uid="{E6A8C8D0-C359-4346-A2FC-4226E3980DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="medios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">medios!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">medios!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
   <si>
     <t>nombre_medio</t>
   </si>
@@ -420,6 +420,51 @@
   </si>
   <si>
     <t>https://www.taleoi.com/periodico</t>
+  </si>
+  <si>
+    <t>article h2 a</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/search?q=site:semana.com</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/search?q=site:elespectador.com</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/search?q=site:elcolombiano.com</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/7381840219995695527</t>
+  </si>
+  <si>
+    <t>La W</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/16401122799019661335</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/16160776615969566339</t>
+  </si>
+  <si>
+    <t>Bluradio</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/138563599909379401</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/16050748872958184890</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/11421475334785713659</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/9305522637411609539</t>
+  </si>
+  <si>
+    <t>https://www.google.com/alerts/feeds/10055315651955315464/12736020621333482144</t>
   </si>
 </sst>
 </file>
@@ -791,10 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}">
-  <dimension ref="A1:F58"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -941,7 +987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -955,7 +1001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -969,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -983,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1192,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1206,7 +1252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1220,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1234,7 +1280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1276,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1290,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1304,7 +1350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1343,13 +1389,13 @@
         <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1462,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1510,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1558,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1572,7 +1618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -1603,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -1634,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1665,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1713,8 +1759,168 @@
         <v>13</v>
       </c>
     </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F58" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}"/>
+  <autoFilter ref="A1:F61" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="scrap"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C48" r:id="rId1" xr:uid="{6C3FDB33-25C3-42AD-9709-576CB8B953B6}"/>
     <hyperlink ref="C41" r:id="rId2" display="http://elmeridiano.co/en-lo-judicial-sucre/" xr:uid="{F6BB3A08-00E3-4490-9D7B-78FED251F671}"/>
@@ -1771,6 +1977,17 @@
     <hyperlink ref="C39" r:id="rId53" xr:uid="{69BFE696-3090-4D91-A08A-5A23776FC183}"/>
     <hyperlink ref="C45" r:id="rId54" xr:uid="{6295A12D-4C85-4C63-B113-BBBA2F658579}"/>
     <hyperlink ref="C47" r:id="rId55" xr:uid="{C07CD794-2800-49E8-942C-C9F62F52200F}"/>
+    <hyperlink ref="C59" r:id="rId56" xr:uid="{58F7D182-80A8-4807-AAA9-984DCFD28374}"/>
+    <hyperlink ref="C60" r:id="rId57" xr:uid="{4FB57168-6B42-462F-B34C-536A7A80C2A8}"/>
+    <hyperlink ref="C61" r:id="rId58" xr:uid="{CB982C15-BAA0-4B5E-95B3-5466B1F7DF9D}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{2E5063DD-B5C8-4D4D-91D2-041206D94974}"/>
+    <hyperlink ref="C63" r:id="rId60" xr:uid="{5320842A-120C-47CC-A299-005B187FF529}"/>
+    <hyperlink ref="C64" r:id="rId61" xr:uid="{E0B637FD-0B29-4978-BAA9-8FF4CAD4A40F}"/>
+    <hyperlink ref="C65" r:id="rId62" xr:uid="{7DC356D5-3DF8-4ADF-A691-7E7DE860D4B7}"/>
+    <hyperlink ref="C66" r:id="rId63" xr:uid="{D6698C78-7DD7-42FC-B0E8-E88839AC2C63}"/>
+    <hyperlink ref="C67" r:id="rId64" xr:uid="{A9CFC30E-42E8-4C4A-8DAD-9F7745E80293}"/>
+    <hyperlink ref="C68" r:id="rId65" xr:uid="{277C33ED-4A61-44ED-90CE-47FF772CA7D4}"/>
+    <hyperlink ref="C69" r:id="rId66" xr:uid="{4D49278C-B919-40F7-A513-C09A2DADCDC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/medios_colombia.xlsx
+++ b/medios_colombia.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Proyectos_Python\Busqueda_noticias_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F2FF0-A88F-4581-8F07-F41EB189CB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF3C66-3BB5-47B4-B8A8-9B52D592D7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="336" windowWidth="21600" windowHeight="11100" xr2:uid="{E6A8C8D0-C359-4346-A2FC-4226E3980DEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6A8C8D0-C359-4346-A2FC-4226E3980DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="medios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">medios!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">medios!$A$1:$F$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>nombre_medio</t>
   </si>
@@ -425,16 +425,7 @@
     <t>article h2 a</t>
   </si>
   <si>
-    <t>https://news.google.com/rss/search?q=site:semana.com</t>
-  </si>
-  <si>
     <t>Semana</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/search?q=site:elespectador.com</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/search?q=site:elcolombiano.com</t>
   </si>
   <si>
     <t>https://www.google.com/alerts/feeds/10055315651955315464/7381840219995695527</t>
@@ -836,18 +827,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" customWidth="1"/>
+    <col min="3" max="3" width="88.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,7 +861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -987,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1238,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1252,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1266,7 +1256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1280,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1322,7 +1312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1336,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1350,7 +1340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1604,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1618,7 +1608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -1649,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -1680,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1711,7 +1701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1759,57 +1749,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
         <v>129</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
-      </c>
       <c r="E59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -1817,27 +1807,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
         <v>136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -1845,7 +1835,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1859,7 +1849,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -1868,59 +1858,11 @@
         <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F61" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="scrap"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F66" xr:uid="{EC7A967E-044C-496D-B6BF-0EE800707403}"/>
   <hyperlinks>
     <hyperlink ref="C48" r:id="rId1" xr:uid="{6C3FDB33-25C3-42AD-9709-576CB8B953B6}"/>
     <hyperlink ref="C41" r:id="rId2" display="http://elmeridiano.co/en-lo-judicial-sucre/" xr:uid="{F6BB3A08-00E3-4490-9D7B-78FED251F671}"/>
@@ -1977,17 +1919,14 @@
     <hyperlink ref="C39" r:id="rId53" xr:uid="{69BFE696-3090-4D91-A08A-5A23776FC183}"/>
     <hyperlink ref="C45" r:id="rId54" xr:uid="{6295A12D-4C85-4C63-B113-BBBA2F658579}"/>
     <hyperlink ref="C47" r:id="rId55" xr:uid="{C07CD794-2800-49E8-942C-C9F62F52200F}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{58F7D182-80A8-4807-AAA9-984DCFD28374}"/>
-    <hyperlink ref="C60" r:id="rId57" xr:uid="{4FB57168-6B42-462F-B34C-536A7A80C2A8}"/>
-    <hyperlink ref="C61" r:id="rId58" xr:uid="{CB982C15-BAA0-4B5E-95B3-5466B1F7DF9D}"/>
-    <hyperlink ref="C62" r:id="rId59" xr:uid="{2E5063DD-B5C8-4D4D-91D2-041206D94974}"/>
-    <hyperlink ref="C63" r:id="rId60" xr:uid="{5320842A-120C-47CC-A299-005B187FF529}"/>
-    <hyperlink ref="C64" r:id="rId61" xr:uid="{E0B637FD-0B29-4978-BAA9-8FF4CAD4A40F}"/>
-    <hyperlink ref="C65" r:id="rId62" xr:uid="{7DC356D5-3DF8-4ADF-A691-7E7DE860D4B7}"/>
-    <hyperlink ref="C66" r:id="rId63" xr:uid="{D6698C78-7DD7-42FC-B0E8-E88839AC2C63}"/>
-    <hyperlink ref="C67" r:id="rId64" xr:uid="{A9CFC30E-42E8-4C4A-8DAD-9F7745E80293}"/>
-    <hyperlink ref="C68" r:id="rId65" xr:uid="{277C33ED-4A61-44ED-90CE-47FF772CA7D4}"/>
-    <hyperlink ref="C69" r:id="rId66" xr:uid="{4D49278C-B919-40F7-A513-C09A2DADCDC1}"/>
+    <hyperlink ref="C59" r:id="rId56" xr:uid="{2E5063DD-B5C8-4D4D-91D2-041206D94974}"/>
+    <hyperlink ref="C60" r:id="rId57" xr:uid="{5320842A-120C-47CC-A299-005B187FF529}"/>
+    <hyperlink ref="C61" r:id="rId58" xr:uid="{E0B637FD-0B29-4978-BAA9-8FF4CAD4A40F}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{7DC356D5-3DF8-4ADF-A691-7E7DE860D4B7}"/>
+    <hyperlink ref="C63" r:id="rId60" xr:uid="{D6698C78-7DD7-42FC-B0E8-E88839AC2C63}"/>
+    <hyperlink ref="C64" r:id="rId61" xr:uid="{A9CFC30E-42E8-4C4A-8DAD-9F7745E80293}"/>
+    <hyperlink ref="C65" r:id="rId62" xr:uid="{277C33ED-4A61-44ED-90CE-47FF772CA7D4}"/>
+    <hyperlink ref="C66" r:id="rId63" xr:uid="{4D49278C-B919-40F7-A513-C09A2DADCDC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
